--- a/CentralityData.xlsx
+++ b/CentralityData.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,64 +442,72 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>GOOGL</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>NFLX</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MSFT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>META</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>AAPL</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TSLA</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>AMZN</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>43465</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.4497478790966073</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.3162849714243501</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.4347819182263449</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.3294366166312911</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.08986486324627381</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08309105499058704</v>
+        <v>0.382109267428818</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4182798616295623</v>
+        <v>0.382109267428818</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.31628497142435</v>
       </c>
     </row>
     <row r="3">
@@ -507,25 +515,28 @@
         <v>43496</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4182798616295623</v>
+        <v>0.4129888006434604</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.4015655827309741</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.4015655827309741</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.3568215825334025</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.0746333484552794</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08309105499058708</v>
+        <v>0.4015655827309741</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.3568215825334025</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2923389789541327</v>
       </c>
     </row>
     <row r="4">
@@ -533,25 +544,28 @@
         <v>43524</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4367168026913758</v>
+        <v>0.5100337561405114</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3409755573090741</v>
+        <v>0.3782291099408378</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4367168026913758</v>
+        <v>0.4993225558708096</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3409755573090741</v>
+        <v>0.3372930765596095</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1621362610753094</v>
+        <v>0.1390259287383411</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1621362610753094</v>
+        <v>0.1390259287383411</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5774529182700653</v>
+        <v>0.2280460400103532</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3782291099408378</v>
       </c>
     </row>
     <row r="5">
@@ -559,25 +573,28 @@
         <v>43555</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4446319250452123</v>
+        <v>0.5100337561405114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4343572768597356</v>
+        <v>0.3782291099408378</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3674535219154478</v>
+        <v>0.4993225558708096</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3254918687978438</v>
+        <v>0.3372930765596095</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1191400563155859</v>
+        <v>0.1390259287383411</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1846611110601476</v>
+        <v>0.1390259287383411</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5695393585092741</v>
+        <v>0.2280460400103532</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3782291099408378</v>
       </c>
     </row>
     <row r="6">
@@ -585,25 +602,28 @@
         <v>43585</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.3849767409880755</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.06390522177865654</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08309105499058704</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4182798616295623</v>
+        <v>0.375878755169718</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.375878755169718</v>
       </c>
     </row>
     <row r="7">
@@ -611,25 +631,28 @@
         <v>43616</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4182798616295623</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.3849767409880755</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.06390522177865654</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08309105499058708</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.375878755169718</v>
       </c>
     </row>
     <row r="8">
@@ -637,25 +660,28 @@
         <v>43646</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.3849767409880755</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.06390522177865654</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08309105499058704</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4182798616295623</v>
+        <v>0.375878755169718</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.375878755169718</v>
       </c>
     </row>
     <row r="9">
@@ -663,25 +689,28 @@
         <v>43677</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.3849767409880755</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.06390522177865654</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08309105499058704</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4182798616295623</v>
+        <v>0.375878755169718</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.375878755169718</v>
       </c>
     </row>
     <row r="10">
@@ -689,25 +718,28 @@
         <v>43708</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.3849767409880755</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.06390522177865654</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08309105499058704</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4182798616295623</v>
+        <v>0.375878755169718</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.375878755169718</v>
       </c>
     </row>
     <row r="11">
@@ -715,25 +747,28 @@
         <v>43738</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3817152631424392</v>
+        <v>0.4130877471258865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2710316175353735</v>
+        <v>0.2492548669072062</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3817152631424392</v>
+        <v>0.393646736684821</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5250060851421272</v>
+        <v>0.2508143126894861</v>
       </c>
       <c r="F11" t="n">
-        <v>0.393521315101915</v>
+        <v>0.1232078619469358</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1106836458482227</v>
+        <v>0.442045621294098</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4386199878371912</v>
+        <v>0.4472716901295293</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3724627208230062</v>
       </c>
     </row>
     <row r="12">
@@ -741,25 +776,28 @@
         <v>43769</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1796697169559862</v>
+        <v>0.4543394877681871</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3332176514290683</v>
+        <v>0.1343481319516504</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3898966072123408</v>
+        <v>0.5241195789911524</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3332176514290683</v>
+        <v>0.2200535250901607</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4867729242349862</v>
+        <v>0.1343481319516504</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1796697169559862</v>
+        <v>0.4543394877681871</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5695632845313411</v>
+        <v>0.2200535250901607</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4236790975493265</v>
       </c>
     </row>
     <row r="13">
@@ -767,25 +805,28 @@
         <v>43799</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2098845941702014</v>
+        <v>0.5415512064861013</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4003165328232514</v>
+        <v>0.1780562343326167</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2098845941702014</v>
+        <v>0.3039100101432096</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4003165328232514</v>
+        <v>0.1635483638663026</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4971409366792254</v>
+        <v>0.3675253095674711</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2098845941702014</v>
+        <v>0.5089313636547372</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5478956173984908</v>
+        <v>0.1635483638663026</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.3675253095674711</v>
       </c>
     </row>
     <row r="14">
@@ -793,25 +834,28 @@
         <v>43830</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1161926075271481</v>
+        <v>0.384633382282024</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3722605416374309</v>
+        <v>0.0929554105468134</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4639334582101607</v>
+        <v>0.4376522626996673</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4639334582101607</v>
+        <v>0.2916779718264026</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4344167171177621</v>
+        <v>0.0929554105468134</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1161926075271481</v>
+        <v>0.4184270499707893</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4639334582101607</v>
+        <v>0.4376522626996673</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4376522626996673</v>
       </c>
     </row>
     <row r="15">
@@ -819,25 +863,28 @@
         <v>43861</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3535651984184473</v>
+        <v>0.3540591836399105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2291140520302379</v>
+        <v>0.2791533809319601</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4374720390904077</v>
+        <v>0.469019874722195</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4121348381553969</v>
+        <v>0.2748906977408778</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4614908834360017</v>
+        <v>0.09669805554713616</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1179743611938213</v>
+        <v>0.4367172676591369</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4841174510681095</v>
+        <v>0.418414613409435</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3550037623360912</v>
       </c>
     </row>
     <row r="16">
@@ -845,25 +892,28 @@
         <v>43890</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2952671340124596</v>
+        <v>0.194520165319485</v>
       </c>
       <c r="C16" t="n">
-        <v>0.129297808979444</v>
+        <v>0.2866878296425676</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4408020517714023</v>
+        <v>0.3669056816313274</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3438804116288554</v>
+        <v>0.1179583343428029</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5886691774814621</v>
+        <v>0.2866878296425676</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2952671340124596</v>
+        <v>0.6050556370062756</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3870725111302034</v>
+        <v>0.3289816157348442</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4182426409811564</v>
       </c>
     </row>
     <row r="17">
@@ -871,25 +921,28 @@
         <v>43921</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3594548459823154</v>
+        <v>0.09145422874076763</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0795388400462322</v>
+        <v>0.3558465975535544</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.3722086958992961</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.07803698174310401</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.4203578680900945</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.4362086971125338</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3762688013467331</v>
+        <v>0.4203578680900945</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4203578680900945</v>
       </c>
     </row>
     <row r="18">
@@ -897,25 +950,28 @@
         <v>43951</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3872978564872225</v>
+        <v>0.1017988063520281</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07107152487037675</v>
+        <v>0.3821742561569785</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4453272108898586</v>
+        <v>0.3126268223126075</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4453272108898586</v>
+        <v>0.06954952498814859</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3872978564872226</v>
+        <v>0.4390667949482447</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4453272108898586</v>
+        <v>0.3821742561569785</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3162287222827538</v>
+        <v>0.4575922984266877</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4390667949482447</v>
       </c>
     </row>
     <row r="19">
@@ -923,25 +979,28 @@
         <v>43982</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3594548459823154</v>
+        <v>0.09145422874076763</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0795388400462322</v>
+        <v>0.3558465975535544</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.3722086958992961</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.078036981743104</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.4203578680900945</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.4203578680900945</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3762688013467331</v>
+        <v>0.4362086971125338</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4203578680900945</v>
       </c>
     </row>
     <row r="20">
@@ -949,25 +1008,28 @@
         <v>44012</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3763870803974607</v>
+        <v>0.08852215518483347</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09004538061766375</v>
+        <v>0.3731601548791547</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3795765400496919</v>
+        <v>0.393095139254777</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3795765400496919</v>
+        <v>0.08852215518483349</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4497784780447685</v>
+        <v>0.4454116504384063</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4497784780447685</v>
+        <v>0.4454116504384063</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3968205350061515</v>
+        <v>0.393095139254777</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3731601548791548</v>
       </c>
     </row>
     <row r="21">
@@ -975,25 +1037,28 @@
         <v>44043</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3594548459823154</v>
+        <v>0.09145422874076763</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0795388400462322</v>
+        <v>0.3558465975535544</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.3722086958992961</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.078036981743104</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.4203578680900945</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.4203578680900945</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3762688013467331</v>
+        <v>0.4362086971125338</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4203578680900945</v>
       </c>
     </row>
     <row r="22">
@@ -1001,25 +1066,28 @@
         <v>44074</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4844664853787946</v>
+        <v>0.09484672402747907</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1404464853251234</v>
+        <v>0.3955220667278715</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4844673304990116</v>
+        <v>0.2478519021697506</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2808912804871835</v>
+        <v>0.1653786921817028</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4844664853787946</v>
+        <v>0.3955220667278715</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4213377657349362</v>
+        <v>0.4417911010547692</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1404464853251234</v>
+        <v>0.413227879506424</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4726641025024289</v>
       </c>
     </row>
     <row r="23">
@@ -1027,25 +1095,28 @@
         <v>44104</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08024059351171742</v>
+        <v>0.07215043162874642</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1937138545750433</v>
+        <v>0.3099873620794638</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5437965226808362</v>
+        <v>0.3683784147032277</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2252497887055373</v>
+        <v>0.3077350650759036</v>
       </c>
       <c r="F23" t="n">
-        <v>0.55208019741875</v>
+        <v>0.4178166936145667</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3903791233691818</v>
+        <v>0.4178166936145667</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3903791233691818</v>
+        <v>0.3802449940252217</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4178166936145667</v>
       </c>
     </row>
     <row r="24">
@@ -1053,25 +1124,28 @@
         <v>44135</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1193830743608675</v>
+        <v>0.07215043162874642</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1193830743608675</v>
+        <v>0.3099873620794638</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5468464515502858</v>
+        <v>0.3683784147032277</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2820216458747621</v>
+        <v>0.3077350650759036</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5468464515502858</v>
+        <v>0.4178166936145667</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4629696129144956</v>
+        <v>0.4178166936145667</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2820216458747621</v>
+        <v>0.3802449940252217</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4178166936145667</v>
       </c>
     </row>
     <row r="25">
@@ -1079,25 +1153,28 @@
         <v>44165</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08440676353367244</v>
+        <v>0.07215043162874642</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1595214278499928</v>
+        <v>0.3099873620794638</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5017015737476346</v>
+        <v>0.3683784147032277</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2338934711524699</v>
+        <v>0.3077350650759036</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5637251532213875</v>
+        <v>0.4178166936145667</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3844812651358925</v>
+        <v>0.4178166936145667</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4420473908563338</v>
+        <v>0.3802449940252217</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.4178166936145667</v>
       </c>
     </row>
     <row r="26">
@@ -1105,25 +1182,28 @@
         <v>44196</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1219338058398642</v>
+        <v>0.08077795151287537</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1219338058398642</v>
+        <v>0.170684792154348</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4501051679464263</v>
+        <v>0.4087272882701866</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3685172249497752</v>
+        <v>0.3417116368708796</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5417241727976377</v>
+        <v>0.4378070676215653</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4501051679464263</v>
+        <v>0.4087272882701866</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3685172249497752</v>
+        <v>0.3933519600995277</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.4087272882701865</v>
       </c>
     </row>
     <row r="27">
@@ -1131,25 +1211,28 @@
         <v>44227</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08440676353367242</v>
+        <v>0.06918719075850979</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4420473908563338</v>
+        <v>0.06918719075850979</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5017015737476347</v>
+        <v>0.3498406188220159</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2338934711524699</v>
+        <v>0.4354985301438344</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5637251532213876</v>
+        <v>0.4190278095803726</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3844812651358925</v>
+        <v>0.4905422265631684</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1595214278499928</v>
+        <v>0.2692654562582508</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.4354985301438343</v>
       </c>
     </row>
     <row r="28">
@@ -1157,25 +1240,28 @@
         <v>44255</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05496862679125199</v>
+        <v>0.1111193847171736</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4160425094684321</v>
+        <v>0.05391101082867526</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4160425094684321</v>
+        <v>0.4528244393777305</v>
       </c>
       <c r="E28" t="n">
-        <v>0.231611035725989</v>
+        <v>0.409153037423694</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4604675173908837</v>
+        <v>0.409153037423694</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4160425094684321</v>
+        <v>0.4739295639439352</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4604675173908837</v>
+        <v>0.2299309824155041</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.409153037423694</v>
       </c>
     </row>
     <row r="29">
@@ -1183,25 +1269,28 @@
         <v>44286</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05496862679125199</v>
+        <v>0.257175565061378</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4160425094684321</v>
+        <v>0.05951082944600888</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4160425094684321</v>
+        <v>0.4233331706421788</v>
       </c>
       <c r="E29" t="n">
-        <v>0.231611035725989</v>
+        <v>0.37462456964639</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4604675173908837</v>
+        <v>0.4213054897260159</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4160425094684321</v>
+        <v>0.4700140907218047</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4604675173908837</v>
+        <v>0.2683458943830522</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.37462456964639</v>
       </c>
     </row>
     <row r="30">
@@ -1209,25 +1298,28 @@
         <v>44316</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05496862679125199</v>
+        <v>0.3788319114565047</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4160425094684321</v>
+        <v>0.05127227572102068</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4160425094684321</v>
+        <v>0.4331669902127109</v>
       </c>
       <c r="E30" t="n">
-        <v>0.231611035725989</v>
+        <v>0.3275596358984831</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4604675173908837</v>
+        <v>0.3903999414343187</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4160425094684321</v>
+        <v>0.4331669902127109</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4604675173908837</v>
+        <v>0.2578191423671549</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.3903999414343187</v>
       </c>
     </row>
     <row r="31">
@@ -1235,25 +1327,28 @@
         <v>44347</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07953884004623221</v>
+        <v>0.3143227763998859</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3594548459823155</v>
+        <v>0.06156524411870089</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.416043133102208</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3762688013467332</v>
+        <v>0.3143227763998859</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.4160431331022079</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.4160431331022079</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.3259517614358502</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.4160431331022079</v>
       </c>
     </row>
     <row r="32">
@@ -1261,25 +1356,28 @@
         <v>44377</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07107152487037675</v>
+        <v>0.276221031970366</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3872978564872225</v>
+        <v>0.05969792284340093</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4453272108898587</v>
+        <v>0.4450786638958905</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3162287222827538</v>
+        <v>0.3482667255639924</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4453272108898587</v>
+        <v>0.3482667255639924</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3872978564872226</v>
+        <v>0.4450786638958905</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4453272108898587</v>
+        <v>0.2885716965837539</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.4450786638958905</v>
       </c>
     </row>
     <row r="33">
@@ -1287,25 +1385,28 @@
         <v>44408</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06508162766085566</v>
+        <v>0.2300872752815841</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3544751620057564</v>
+        <v>0.05982869094993616</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4922785815471463</v>
+        <v>0.4388562240326153</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2521483768283505</v>
+        <v>0.3227752534351007</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4405489959900891</v>
+        <v>0.4089897526041509</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4405489959900891</v>
+        <v>0.4089897526041509</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4195567896471385</v>
+        <v>0.244714654507922</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.5022660911201492</v>
       </c>
     </row>
     <row r="34">
@@ -1313,25 +1414,28 @@
         <v>44439</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2401979808197163</v>
+        <v>0.3325773962384098</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11632318755841</v>
+        <v>0.2179963134240992</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5181881576344721</v>
+        <v>0.4641283921634221</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3418756629618842</v>
+        <v>0.08406853255281888</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3911156436927706</v>
+        <v>0.3405313143652747</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4165104754923043</v>
+        <v>0.3238861277178132</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4657504562231906</v>
+        <v>0.3757392629522235</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5072902588772357</v>
       </c>
     </row>
     <row r="35">
@@ -1339,25 +1443,28 @@
         <v>44469</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1955295598862046</v>
+        <v>0.3229194447594183</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1516725071697409</v>
+        <v>0.1759177326899571</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5501456416263264</v>
+        <v>0.4628870029265061</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1516725071697409</v>
+        <v>0.1107826109859864</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4988744862145434</v>
+        <v>0.3488344640177863</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4267453059801184</v>
+        <v>0.4337020556946341</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4267453059801184</v>
+        <v>0.1470017121202316</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.5539371438888451</v>
       </c>
     </row>
     <row r="36">
@@ -1365,25 +1472,28 @@
         <v>44500</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1955295598862046</v>
+        <v>0.3229194447594183</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1516725071697409</v>
+        <v>0.1759177326899571</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5501456416263264</v>
+        <v>0.4628870029265061</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1516725071697409</v>
+        <v>0.1107826109859864</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4988744862145434</v>
+        <v>0.3488344640177863</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4267453059801184</v>
+        <v>0.4337020556946341</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4267453059801184</v>
+        <v>0.1470017121202316</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.5539371438888451</v>
       </c>
     </row>
     <row r="37">
@@ -1391,25 +1501,28 @@
         <v>44530</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2226192413644233</v>
+        <v>0.4146184433708808</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3487583957899884</v>
+        <v>0.1629551608212075</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6155100988045412</v>
+        <v>0.4441167694183107</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1484899888486303</v>
+        <v>0.2305100524777113</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3711092302083889</v>
+        <v>0.2305100524777113</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3487583957899884</v>
+        <v>0.4146184433708808</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4105506264053325</v>
+        <v>0.1301540151215293</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.5560388181393303</v>
       </c>
     </row>
     <row r="38">
@@ -1417,25 +1530,28 @@
         <v>44561</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2226192413644233</v>
+        <v>0.3349526854322113</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3487583957899884</v>
+        <v>0.1909786924075339</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6155100988045412</v>
+        <v>0.4508704242734137</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1484899888486303</v>
+        <v>0.2805741006135148</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3711092302083889</v>
+        <v>0.2805741006135148</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3487583957899884</v>
+        <v>0.3349526854322113</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4105506264053325</v>
+        <v>0.1439739932438427</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.5980670815256237</v>
       </c>
     </row>
     <row r="39">
@@ -1443,25 +1559,28 @@
         <v>44592</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3625540195750355</v>
+        <v>0.4036614389030992</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3625540195750355</v>
+        <v>0.289016971407779</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6279630301884946</v>
+        <v>0.3821662540606456</v>
       </c>
       <c r="E39" t="n">
-        <v>0.09714863865810845</v>
+        <v>0.289016971407779</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2654108254824945</v>
+        <v>0.3821662540606456</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3625540195750355</v>
+        <v>0.1916178201697068</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3625540195750355</v>
+        <v>0.05748377339247786</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5812675447018437</v>
       </c>
     </row>
     <row r="40">
@@ -1469,25 +1588,28 @@
         <v>44620</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3109389993515891</v>
+        <v>0.3535540718545361</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4397315245550794</v>
+        <v>0.2886745877064752</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6218758237515143</v>
+        <v>0.1514536312703547</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1287957876305971</v>
+        <v>0.2886745877064752</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3109389993515891</v>
+        <v>0.2886745877064752</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4397315245550794</v>
+        <v>0.3535540718545361</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1287957876305971</v>
+        <v>0.1514536312703547</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.673886918509101</v>
       </c>
     </row>
     <row r="41">
@@ -1495,25 +1617,28 @@
         <v>44651</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4069271878744891</v>
+        <v>0.3844165408068505</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4028382504408128</v>
+        <v>0.3183681567701994</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4698376119996471</v>
+        <v>0.4376002091649872</v>
       </c>
       <c r="E41" t="n">
-        <v>0.08315764385446504</v>
+        <v>0.3825178963162611</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3448114454875632</v>
+        <v>0.3293342279581244</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3237695442450302</v>
+        <v>0.3297327033386785</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4698376119996471</v>
+        <v>0.06612959570672772</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.4376002091649871</v>
       </c>
     </row>
     <row r="42">
@@ -1521,25 +1646,28 @@
         <v>44681</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5055526317677839</v>
+        <v>0.4734252111444827</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5055526317677839</v>
+        <v>0.331893979455599</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5150440504131959</v>
+        <v>0.331893979455599</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07869062967841407</v>
+        <v>0.4320237715197605</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2161505666068892</v>
+        <v>0.253975729536856</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1875024920409737</v>
+        <v>0.2736661727431069</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3680926948393087</v>
+        <v>0.07340658861478411</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.4734252111444827</v>
       </c>
     </row>
     <row r="43">
@@ -1547,25 +1675,28 @@
         <v>44712</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5714178224642202</v>
+        <v>0.5135095547764037</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4405641741022469</v>
+        <v>0.3400951359311917</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4314244887308279</v>
+        <v>0.3599740680725772</v>
       </c>
       <c r="E43" t="n">
-        <v>0.100890566493343</v>
+        <v>0.3599740680725772</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2317442148553163</v>
+        <v>0.2788619181499834</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1878209577298237</v>
+        <v>0.3057651445338987</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4405641741022469</v>
+        <v>0.09069737080291039</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.4266125528194854</v>
       </c>
     </row>
     <row r="44">
@@ -1573,25 +1704,28 @@
         <v>44742</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4251139775863122</v>
+        <v>0.3899175004904303</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3594548459823154</v>
+        <v>0.3899175004904303</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4251139775863122</v>
+        <v>0.3899175004904303</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0795388400462322</v>
+        <v>0.3383317360366854</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3762688013467332</v>
+        <v>0.3899175004904304</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.3488387093999191</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.06053846108944198</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.3899175004904304</v>
       </c>
     </row>
     <row r="45">
@@ -1599,25 +1733,28 @@
         <v>44773</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08309105499058708</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4182798616295623</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.3849767409880755</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.06390522177865654</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.375878755169718</v>
       </c>
     </row>
     <row r="46">
@@ -1625,25 +1762,28 @@
         <v>44804</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4251139775863122</v>
+        <v>0.3899175004904303</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3594548459823154</v>
+        <v>0.3899175004904303</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4251139775863122</v>
+        <v>0.3899175004904303</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0795388400462322</v>
+        <v>0.3383317360366854</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3762688013467332</v>
+        <v>0.3899175004904304</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.3488387093999191</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4251139775863123</v>
+        <v>0.06053846108944198</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.3899175004904304</v>
       </c>
     </row>
     <row r="47">
@@ -1651,25 +1791,28 @@
         <v>44834</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08309105499058704</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4045090441351604</v>
+        <v>0.3849767409880755</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4182798616295623</v>
+        <v>0.375878755169718</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4045090441351603</v>
+        <v>0.06390522177865654</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.375878755169718</v>
       </c>
     </row>
     <row r="48">
@@ -1677,25 +1820,28 @@
         <v>44865</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4138198307342488</v>
+        <v>0.3906333590069951</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4138198307342488</v>
+        <v>0.3906333590069951</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4332850129317964</v>
+        <v>0.4167996939304283</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1020828936369139</v>
+        <v>0.3906333590069953</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4546704077368381</v>
+        <v>0.1613510143855016</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2142407907808354</v>
+        <v>0.4167996939304284</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4546704077368381</v>
+        <v>0.07806138126930003</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.4032927443964708</v>
       </c>
     </row>
     <row r="49">
@@ -1703,25 +1849,28 @@
         <v>44895</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4234731526193209</v>
+        <v>0.3568215825334024</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3606569572600207</v>
+        <v>0.4015655827309742</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4396223131033895</v>
+        <v>0.4015655827309742</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09271896900565983</v>
+        <v>0.3568215825334024</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4234731526193209</v>
+        <v>0.2923389789541327</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3606569572600207</v>
+        <v>0.4015655827309741</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4234731526193209</v>
+        <v>0.07463334845527941</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.4129888006434605</v>
       </c>
     </row>
     <row r="50">
@@ -1729,25 +1878,376 @@
         <v>44926</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4234731526193209</v>
+        <v>0.389156152440751</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3606569572600207</v>
+        <v>0.389156152440751</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4396223131033895</v>
+        <v>0.389156152440751</v>
       </c>
       <c r="E50" t="n">
-        <v>0.09271896900565983</v>
+        <v>0.3390642625084855</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4234731526193209</v>
+        <v>0.3390642625084855</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3606569572600207</v>
+        <v>0.389156152440751</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4234731526193209</v>
+        <v>0.06923153192245098</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.399384279656659</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4269140620392352</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.4141663378082595</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.4141663378082595</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.3144709200332088</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.3144709200332088</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.4141663378082595</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.08041914494102514</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.3144709200332088</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4293123094033066</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.3874060464977941</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.4293123094033066</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.3306839894362111</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.2542165486923413</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.4293123094033066</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.06791844216697321</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.3440908438718844</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4197921559245135</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.3690270998299965</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.4545199705548808</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1958870764580078</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.2863472564901767</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.4545199705548808</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.08267984539444413</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.3836851356147717</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.4197921559245135</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.3690270998299965</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.4545199705548808</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1958870764580078</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.2863472564901767</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.4545199705548808</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.08267984539444413</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.3836851356147717</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.4197921559245135</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.3690270998299965</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.4545199705548808</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.1958870764580078</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2863472564901767</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.4545199705548808</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.08267984539444413</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.3836851356147717</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.4367902236704909</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.3832900685456561</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4367902236704909</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1009458255137212</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2947077286002819</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.4551156671745114</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.08858235492219527</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.3993714001645398</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.4790402767403436</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.4337799278867617</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.4039964798358058</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.1158908442593484</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.2238236341197374</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.4572148827217883</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.09406545024079317</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.3711074868799546</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5097995896955955</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.307032311544594</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.396442903438364</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.237355900277236</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.3355107680710075</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.4488674543282389</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.08265629968235344</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.333840093468173</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4820678311254188</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2807911149138363</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.4370787505129383</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2807911149138363</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.4184726522428909</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.4506907487411446</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.1472676273434022</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.1376815378893063</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4582306893110722</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.2699232501664497</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.4582306893110722</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2925629854129282</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.2925629854129282</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.5350963757271602</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.157601360372915</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.157601360372915</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.2771958877136779</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1762287452998851</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.4617232072321886</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.4130416542934653</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1058008493488599</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.6204511370196212</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.2368129089962289</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.2368129089962289</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1793452256934511</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.1484907302160576</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.4835886456756238</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.4487046329462709</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.05507061872866711</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.5289975033430165</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.1624345652540883</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.4487046329462709</v>
       </c>
     </row>
   </sheetData>
